--- a/generator/input/reg_maps/reg_map_briom_2ai.xlsx
+++ b/generator/input/reg_maps/reg_map_briom_2ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Hobby\SAND\generator\input\reg_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A64949-6985-46FB-B4D3-A8D743B0648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14027BCE-54CF-47D2-80A0-B20C110FD011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct_list" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="199">
   <si>
     <t>name</t>
   </si>
@@ -574,21 +574,9 @@
     <t>16.0f</t>
   </si>
   <si>
-    <t>Power voltage calibration multiple coefficient</t>
-  </si>
-  <si>
-    <t>Temperature calibration additional coefficient</t>
-  </si>
-  <si>
-    <t>Select Vref source (0-Vref_int, 1-Vref_ext)</t>
-  </si>
-  <si>
     <t>v_pwr_add</t>
   </si>
   <si>
-    <t>Power voltage calibration additional coefficient</t>
-  </si>
-  <si>
     <t>dump_position</t>
   </si>
   <si>
@@ -632,6 +620,24 @@
   </si>
   <si>
     <t>only_end</t>
+  </si>
+  <si>
+    <t>SAND_PROP_END</t>
+  </si>
+  <si>
+    <t>cmd_sand_callback</t>
+  </si>
+  <si>
+    <t>Temperature addl coeff</t>
+  </si>
+  <si>
+    <t>Power voltage mul coeff</t>
+  </si>
+  <si>
+    <t>Power voltage addl coeff</t>
+  </si>
+  <si>
+    <t>Select Vref source (0-Int, 1-Ext)</t>
   </si>
 </sst>
 </file>
@@ -664,7 +670,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +707,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -729,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,6 +777,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1133,13 +1149,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FF13CE-6448-41FA-BA7B-6B713DD2EE28}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:N1048576"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,9 +1173,10 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="7" customWidth="1"/>
     <col min="14" max="14" width="13.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -1183,11 +1200,14 @@
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1225,13 +1245,14 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>85</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>86</v>
       </c>
@@ -1271,7 +1292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>87</v>
       </c>
@@ -1291,7 +1312,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>88</v>
       </c>
@@ -1311,7 +1332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>89</v>
       </c>
@@ -1331,7 +1352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>90</v>
       </c>
@@ -1351,7 +1372,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>91</v>
       </c>
@@ -1371,7 +1392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -1391,7 +1412,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>93</v>
       </c>
@@ -1412,7 +1433,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>100</v>
       </c>
@@ -1432,7 +1453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>94</v>
       </c>
@@ -1466,13 +1487,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,9 +1510,10 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" style="7" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -1515,11 +1537,14 @@
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1557,11 +1582,12 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="O2" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1577,13 +1603,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:N1048576"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,11 +1624,12 @@
     <col min="10" max="10" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -1626,11 +1653,14 @@
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1668,13 +1698,14 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1746,7 +1777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -1765,8 +1796,14 @@
       <c r="F6" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1789,12 +1826,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -1809,12 +1846,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>25</v>
@@ -1829,7 +1866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
@@ -1849,12 +1886,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
@@ -1872,7 +1909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
@@ -1892,7 +1929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>43</v>
       </c>
@@ -1912,7 +1949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -1932,7 +1969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>101</v>
       </c>
@@ -1966,13 +2003,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:N1048576"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,9 +2027,10 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="11" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -2016,11 +2054,14 @@
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2058,13 +2099,14 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -2084,7 +2126,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>149</v>
       </c>
@@ -2107,7 +2149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -2130,7 +2172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>124</v>
       </c>
@@ -2150,7 +2192,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>127</v>
       </c>
@@ -2170,7 +2212,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2190,7 +2232,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
@@ -2236,7 +2278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
@@ -2256,7 +2298,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -2276,7 +2318,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -2296,7 +2338,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>103</v>
       </c>
@@ -2316,7 +2358,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>104</v>
       </c>
@@ -2336,12 +2378,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>44</v>
@@ -2367,7 +2409,7 @@
         <v>173</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>44</v>
@@ -2390,10 +2432,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>44</v>
@@ -2419,7 +2461,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
@@ -2460,13 +2502,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F146BD-F89E-4E15-A02E-16005116AC05}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:N1048576"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,9 +2525,10 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -2509,11 +2552,14 @@
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2551,13 +2597,14 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
@@ -2577,7 +2624,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>116</v>
       </c>
@@ -2597,7 +2644,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>83</v>
       </c>
@@ -2617,7 +2664,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>82</v>
       </c>
@@ -2637,7 +2684,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>121</v>
       </c>
@@ -2671,13 +2718,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:N1048576"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,9 +2741,10 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -2720,11 +2768,14 @@
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2762,13 +2813,14 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -2788,7 +2840,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -2814,7 +2866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -2840,7 +2892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -2866,7 +2918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
@@ -2892,7 +2944,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2918,7 +2970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>36</v>
       </c>
@@ -2944,7 +2996,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -2970,7 +3022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -3004,13 +3056,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4ADAE7-8217-4070-BB60-AD1572F84295}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:N1048576"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,9 +3079,10 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -3053,11 +3106,14 @@
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3095,13 +3151,14 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>137</v>
       </c>
@@ -3121,7 +3178,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>138</v>
       </c>
@@ -3153,7 +3210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>139</v>
       </c>
@@ -3185,7 +3242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>140</v>
       </c>
@@ -3205,7 +3262,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>141</v>
       </c>
@@ -3225,12 +3282,12 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -3245,7 +3302,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>142</v>
       </c>
@@ -3265,12 +3322,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -3285,7 +3342,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>153</v>
       </c>
@@ -3305,12 +3362,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -3339,13 +3396,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:N1048576"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,9 +3419,10 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -3388,11 +3446,14 @@
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3430,13 +3491,14 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
@@ -3462,7 +3524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>150</v>
       </c>
@@ -3488,7 +3550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>166</v>
       </c>
@@ -3508,7 +3570,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
@@ -3528,7 +3590,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>168</v>
       </c>
@@ -3562,13 +3624,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622EF646-023E-42FD-8335-9337B02D684D}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:N1048576"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,9 +3648,10 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -3612,11 +3675,14 @@
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3654,13 +3720,14 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>107</v>
       </c>
@@ -3680,7 +3747,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>108</v>
       </c>
@@ -3706,7 +3773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>109</v>
       </c>
@@ -3732,7 +3799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>110</v>
       </c>
@@ -3752,7 +3819,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>111</v>
       </c>

--- a/generator/input/reg_maps/reg_map_briom_2ai.xlsx
+++ b/generator/input/reg_maps/reg_map_briom_2ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Hobby\SAND\generator\input\reg_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14027BCE-54CF-47D2-80A0-B20C110FD011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34564206-F300-4440-934D-99E559E0C56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct_list" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="199">
   <si>
     <t>name</t>
   </si>
@@ -616,9 +616,6 @@
     <t>SAND_PROP_CALLBACK</t>
   </si>
   <si>
-    <t>callback</t>
-  </si>
-  <si>
     <t>only_end</t>
   </si>
   <si>
@@ -628,16 +625,19 @@
     <t>cmd_sand_callback</t>
   </si>
   <si>
-    <t>Temperature addl coeff</t>
-  </si>
-  <si>
     <t>Power voltage mul coeff</t>
   </si>
   <si>
-    <t>Power voltage addl coeff</t>
-  </si>
-  <si>
     <t>Select Vref source (0-Int, 1-Ext)</t>
+  </si>
+  <si>
+    <t>Temperature add coeff</t>
+  </si>
+  <si>
+    <t>Power voltage add coeff</t>
+  </si>
+  <si>
+    <t>(*callback)(void)</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1245,10 +1245,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O2" s="17"/>
     </row>
@@ -1493,7 +1493,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15:M16"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1582,10 +1582,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O2" s="17"/>
     </row>
@@ -1605,11 +1605,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,10 +1698,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O2" s="17"/>
     </row>
@@ -1797,10 +1797,10 @@
         <v>6</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2005,11 +2005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,10 +2099,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O2" s="17"/>
     </row>
@@ -2383,7 +2383,7 @@
         <v>172</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>44</v>
@@ -2409,7 +2409,7 @@
         <v>173</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>44</v>
@@ -2461,7 +2461,7 @@
         <v>174</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
@@ -2508,7 +2508,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2597,10 +2597,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O2" s="17"/>
     </row>
@@ -2724,7 +2724,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2813,10 +2813,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O2" s="17"/>
     </row>
@@ -3062,7 +3062,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3151,10 +3151,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O2" s="17"/>
     </row>
@@ -3402,7 +3402,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3491,10 +3491,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O2" s="17"/>
     </row>
@@ -3630,7 +3630,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3720,10 +3720,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="O2" s="17"/>
     </row>

--- a/generator/input/reg_maps/reg_map_briom_2ai.xlsx
+++ b/generator/input/reg_maps/reg_map_briom_2ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Hobby\SAND\generator\input\reg_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34564206-F300-4440-934D-99E559E0C56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD850A6D-756A-4EB3-91F2-DBD62F3BDD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct_list" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="200">
   <si>
     <t>name</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>(*callback)(void)</t>
+  </si>
+  <si>
+    <t>debug_err_led_on</t>
   </si>
 </sst>
 </file>
@@ -768,6 +771,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,10 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1151,11 +1154,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FF13CE-6448-41FA-BA7B-6B713DD2EE28}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,37 +1176,37 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="7" customWidth="1"/>
     <col min="14" max="14" width="13.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1250,7 +1253,7 @@
       <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1271,6 +1274,12 @@
       <c r="F3" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="M3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1290,6 +1299,12 @@
       </c>
       <c r="F4" s="8" t="s">
         <v>48</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1510,37 +1525,37 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" style="7" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1587,7 +1602,7 @@
       <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1605,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1626,37 +1641,37 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1703,7 +1718,7 @@
       <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2027,37 +2042,37 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="11" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2104,7 +2119,7 @@
       <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2525,37 +2540,37 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2602,7 +2617,7 @@
       <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2741,37 +2756,37 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2818,7 +2833,7 @@
       <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3079,37 +3094,37 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3156,7 +3171,7 @@
       <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3419,37 +3434,37 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="7" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3496,7 +3511,7 @@
       <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3648,37 +3663,37 @@
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3725,7 +3740,7 @@
       <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">

--- a/generator/input/reg_maps/reg_map_briom_2ai.xlsx
+++ b/generator/input/reg_maps/reg_map_briom_2ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Hobby\SAND\generator\input\reg_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD850A6D-756A-4EB3-91F2-DBD62F3BDD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73767659-2F25-47E5-AF7A-5CB213EA395C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct_list" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="ai" sheetId="11" r:id="rId9"/>
     <sheet name="test" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="208">
   <si>
     <t>name</t>
   </si>
@@ -641,6 +641,30 @@
   </si>
   <si>
     <t>debug_err_led_on</t>
+  </si>
+  <si>
+    <t>meas_calib_b</t>
+  </si>
+  <si>
+    <t>meas_calib_a</t>
+  </si>
+  <si>
+    <t>meas_value</t>
+  </si>
+  <si>
+    <t>Engineer units value</t>
+  </si>
+  <si>
+    <t>Engineer units add</t>
+  </si>
+  <si>
+    <t>Engineer units mul</t>
+  </si>
+  <si>
+    <t>{1.0f,1.0f}</t>
+  </si>
+  <si>
+    <t>avg_num</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1115,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FF13CE-6448-41FA-BA7B-6B713DD2EE28}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3639,13 +3663,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622EF646-023E-42FD-8335-9337B02D684D}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,6 +3878,107 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1018</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>100</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1024</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1028</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>

--- a/generator/input/reg_maps/reg_map_briom_2ai.xlsx
+++ b/generator/input/reg_maps/reg_map_briom_2ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Hobby\SAND\generator\input\reg_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73767659-2F25-47E5-AF7A-5CB213EA395C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE2B740-9DE3-4A4A-A328-9E1FA023B672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct_list" sheetId="2" r:id="rId1"/>
@@ -2044,11 +2044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,7 +2515,7 @@
         <v>386</v>
       </c>
       <c r="G19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -3665,7 +3665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622EF646-023E-42FD-8335-9337B02D684D}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/generator/input/reg_maps/reg_map_briom_2ai.xlsx
+++ b/generator/input/reg_maps/reg_map_briom_2ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Hobby\SAND\generator\input\reg_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE2B740-9DE3-4A4A-A328-9E1FA023B672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB5B89-7D43-440F-9607-C88425651D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct_list" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="210">
   <si>
     <t>name</t>
   </si>
@@ -665,6 +665,12 @@
   </si>
   <si>
     <t>avg_num</t>
+  </si>
+  <si>
+    <t>Samples number for average</t>
+  </si>
+  <si>
+    <t>ai_vref_sel</t>
   </si>
 </sst>
 </file>
@@ -2044,11 +2050,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,10 +3669,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622EF646-023E-42FD-8335-9337B02D684D}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
@@ -3675,7 +3681,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -3882,6 +3888,9 @@
       <c r="A8" s="7" t="s">
         <v>207</v>
       </c>
+      <c r="B8" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
@@ -3976,6 +3985,38 @@
         <v>206</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1032</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>48</v>
       </c>
     </row>

--- a/generator/input/reg_maps/reg_map_briom_2ai.xlsx
+++ b/generator/input/reg_maps/reg_map_briom_2ai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Hobby\SAND\generator\input\reg_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD850A6D-756A-4EB3-91F2-DBD62F3BDD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB5B89-7D43-440F-9607-C88425651D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct_list" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="ai" sheetId="11" r:id="rId9"/>
     <sheet name="test" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="210">
   <si>
     <t>name</t>
   </si>
@@ -641,6 +641,36 @@
   </si>
   <si>
     <t>debug_err_led_on</t>
+  </si>
+  <si>
+    <t>meas_calib_b</t>
+  </si>
+  <si>
+    <t>meas_calib_a</t>
+  </si>
+  <si>
+    <t>meas_value</t>
+  </si>
+  <si>
+    <t>Engineer units value</t>
+  </si>
+  <si>
+    <t>Engineer units add</t>
+  </si>
+  <si>
+    <t>Engineer units mul</t>
+  </si>
+  <si>
+    <t>{1.0f,1.0f}</t>
+  </si>
+  <si>
+    <t>avg_num</t>
+  </si>
+  <si>
+    <t>Samples number for average</t>
+  </si>
+  <si>
+    <t>ai_vref_sel</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1121,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FF13CE-6448-41FA-BA7B-6B713DD2EE28}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2024,7 +2054,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,7 +2521,7 @@
         <v>386</v>
       </c>
       <c r="G19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -3639,19 +3669,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622EF646-023E-42FD-8335-9337B02D684D}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -3854,6 +3884,142 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1018</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>100</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1024</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1028</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1032</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
